--- a/public/templates/shaken_template.xlsx
+++ b/public/templates/shaken_template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaydo\appdevelope\HayashiDr\moto-invoice\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80958F6-1027-4B96-AE9C-B5A8D48E052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896597F-61E8-48BD-BD28-9B1F749A267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2080" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="車検　会計   " sheetId="36" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="16" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'車検　会計   '!$C$43:$C$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'車検　会計   '!$C$43</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -39,6 +39,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
@@ -169,9 +191,6 @@
     <t>法定費用</t>
   </si>
   <si>
-    <t>自賠責保険２４ヶ月</t>
-  </si>
-  <si>
     <t>印紙代</t>
   </si>
   <si>
@@ -206,6 +225,10 @@
   </si>
   <si>
     <t>預り金</t>
+  </si>
+  <si>
+    <t>自賠責保険</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -218,7 +241,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -235,12 +258,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -281,12 +298,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="26"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="24"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -970,114 +981,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,46 +1095,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1135,60 +1185,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1274,53 +1278,68 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F651D6-E556-AFF9-DB7C-087221A8824F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="10258425"/>
-          <a:ext cx="1809750" cy="1809750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1645,15 +1664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B8A382-8351-4233-ABBC-379BB1C9197E}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
     <col min="2" max="2" width="45.26953125" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
@@ -1663,76 +1682,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="60">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-    </row>
-    <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63">
-        <v>45864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1746,10 +1765,10 @@
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1764,10 +1783,10 @@
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="76"/>
+      <c r="B9" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="71"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10">
@@ -1777,10 +1796,10 @@
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="14">
@@ -1790,10 +1809,10 @@
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="78"/>
+      <c r="B11" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="73"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
@@ -1829,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
@@ -1966,8 +1985,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="70"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="38"/>
       <c r="D26" s="34"/>
       <c r="E26" s="39"/>
@@ -1988,8 +2007,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="70"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="38"/>
       <c r="D28" s="34"/>
       <c r="E28" s="39"/>
@@ -2087,11 +2106,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
+      <c r="A37" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
       <c r="F37" s="48">
@@ -2100,11 +2119,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="92"/>
+      <c r="A38" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="47"/>
       <c r="E38" s="39"/>
       <c r="F38" s="48">
@@ -2113,11 +2132,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
+      <c r="A39" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="49"/>
       <c r="E39" s="50"/>
       <c r="F39" s="51">
@@ -2127,7 +2146,7 @@
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -2139,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -2153,90 +2172,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="96"/>
+      <c r="D42" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="91"/>
       <c r="F42" s="55">
         <f>F41*1.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="56"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="97" t="s">
+      <c r="C43" s="67"/>
+      <c r="D43" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="86"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="55">
         <f>SUM(F42+F13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="85" t="s">
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="97" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44" s="93"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="86"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="68"/>
-      <c r="B45" s="82" t="s">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="98"/>
+      <c r="B45" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="86"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="69"/>
-      <c r="B46" s="100" t="s">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="98"/>
+      <c r="B46" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="85" t="s">
+      <c r="C46" s="96"/>
+      <c r="D46" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="86"/>
-      <c r="F46" s="58">
+      <c r="E46" s="81"/>
+      <c r="F46" s="57">
         <f>SUM(F43-F45)-F44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A47" s="59"/>
-      <c r="B47" s="84" t="s">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="98"/>
+      <c r="B47" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="84"/>
+      <c r="C47" s="79"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-    </row>
-    <row r="49" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-    </row>
-    <row r="50" spans="2:3" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+    </row>
+    <row r="49" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="98"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:C49"/>
     <mergeCell ref="D45:E45"/>
@@ -2249,6 +2268,7 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A44:A49"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -2260,10 +2280,9 @@
     <mergeCell ref="D6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="5.9027777777777776E-3" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="85" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 

--- a/public/templates/shaken_template.xlsx
+++ b/public/templates/shaken_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaydo\appdevelope\HayashiDr\moto-invoice\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896597F-61E8-48BD-BD28-9B1F749A267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980947DE-6400-4E5D-AAD2-7CDF059B06F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,28 +37,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1104,33 +1082,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,8 +1142,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1276,70 +1254,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1666,13 +1580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B8A382-8351-4233-ABBC-379BB1C9197E}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
     <col min="2" max="2" width="45.26953125" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
@@ -1682,14 +1596,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62"/>
@@ -1711,9 +1625,9 @@
       <c r="C3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
@@ -1723,9 +1637,9 @@
       <c r="C4" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
@@ -1737,9 +1651,9 @@
       <c r="C5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
@@ -1749,9 +1663,9 @@
       <c r="C6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1765,10 +1679,10 @@
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1783,10 +1697,10 @@
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10">
@@ -1796,10 +1710,10 @@
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="14">
@@ -1809,10 +1723,10 @@
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
@@ -2106,11 +2020,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
       <c r="F37" s="48">
@@ -2119,11 +2033,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="47"/>
       <c r="E38" s="39"/>
       <c r="F38" s="48">
@@ -2132,11 +2046,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="49"/>
       <c r="E39" s="50"/>
       <c r="F39" s="51">
@@ -2176,10 +2090,10 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="91" t="s">
+      <c r="D42" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="91"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="55">
         <f>F41*1.1</f>
         <v>0</v>
@@ -2189,73 +2103,80 @@
       <c r="A43" s="56"/>
       <c r="B43" s="56"/>
       <c r="C43" s="67"/>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="81"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="55">
         <f>SUM(F42+F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="97" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="80" t="s">
+      <c r="A44" s="88"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="81"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="98"/>
-      <c r="B45" s="77" t="s">
+      <c r="A45" s="89"/>
+      <c r="B45" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="80" t="s">
+      <c r="C45" s="69"/>
+      <c r="D45" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="81"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="98"/>
-      <c r="B46" s="95" t="s">
+      <c r="A46" s="89"/>
+      <c r="B46" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="96"/>
-      <c r="D46" s="80" t="s">
+      <c r="C46" s="87"/>
+      <c r="D46" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="81"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="57">
         <f>SUM(F43-F45)-F44</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="98"/>
-      <c r="B47" s="79" t="s">
+      <c r="A47" s="89"/>
+      <c r="B47" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="79"/>
+      <c r="C47" s="70"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="98"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
     </row>
     <row r="49" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="98"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:C49"/>
     <mergeCell ref="D45:E45"/>
@@ -2269,15 +2190,6 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="5.9027777777777776E-3" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/shaken_template.xlsx
+++ b/public/templates/shaken_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaydo\appdevelope\HayashiDr\moto-invoice\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980947DE-6400-4E5D-AAD2-7CDF059B06F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0FBB72-B081-495B-949B-589179318E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="車検　会計   " sheetId="36" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="16" state="hidden" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'車検　会計   '!$C$43</definedName>
-  </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>メーカー</t>
     <phoneticPr fontId="1"/>
@@ -139,73 +136,72 @@
     <t>調整値引き</t>
   </si>
   <si>
+    <t>Ti-tech</t>
+  </si>
+  <si>
+    <t>登録番号</t>
+  </si>
+  <si>
+    <t>型式</t>
+  </si>
+  <si>
+    <t>車台番号</t>
+  </si>
+  <si>
+    <t>走行距離</t>
+  </si>
+  <si>
+    <t>原動機型式</t>
+  </si>
+  <si>
+    <t>初年度登録</t>
+  </si>
+  <si>
+    <t>次回車検有効期限</t>
+  </si>
+  <si>
+    <t>法定費用</t>
+  </si>
+  <si>
+    <t>印紙代</t>
+  </si>
+  <si>
+    <t>様</t>
+  </si>
+  <si>
+    <t>車検整備　見積書</t>
+  </si>
+  <si>
+    <t>　km</t>
+  </si>
+  <si>
+    <t>品名・作業名</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>５８９－００２３</t>
+  </si>
+  <si>
+    <t>預り金</t>
+  </si>
+  <si>
+    <t>自賠責保険</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>大阪府大阪狭山市大野台６－１２－８</t>
-  </si>
-  <si>
-    <t>Ti-tech</t>
-  </si>
-  <si>
-    <t>登録番号</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>車台番号</t>
-  </si>
-  <si>
-    <t>走行距離</t>
-  </si>
-  <si>
-    <t>原動機型式</t>
-  </si>
-  <si>
-    <t>初年度登録</t>
-  </si>
-  <si>
-    <t>次回車検有効期限</t>
-  </si>
-  <si>
-    <t>法定費用</t>
-  </si>
-  <si>
-    <t>印紙代</t>
-  </si>
-  <si>
-    <t>部品交換技術料</t>
-  </si>
-  <si>
-    <t>10%対象合計　②</t>
-  </si>
-  <si>
-    <t>車検代行料</t>
-  </si>
-  <si>
-    <t>車検整備基本料</t>
-  </si>
-  <si>
-    <t>様</t>
-  </si>
-  <si>
-    <t>車検整備　見積書</t>
-  </si>
-  <si>
-    <t>　km</t>
-  </si>
-  <si>
-    <t>品名・作業名</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>５８９－００２３</t>
-  </si>
-  <si>
-    <t>預り金</t>
-  </si>
-  <si>
-    <t>自賠責保険</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内消費税</t>
+    <rPh sb="0" eb="1">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ショウヒゼイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -296,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -699,15 +695,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -720,260 +712,124 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -984,19 +840,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1009,36 +857,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,14 +879,13 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1073,15 +897,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,7 +989,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,43 +997,10 @@
     <xf numFmtId="5" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="5" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1144,33 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1578,96 +1418,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B8A382-8351-4233-ABBC-379BB1C9197E}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="45.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="A1" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="60">
+      <c r="A2" s="40"/>
+      <c r="B2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38">
         <v>45864</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="B5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="63" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1675,499 +1515,480 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:F10" si="0">SUM(D9*E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <f t="shared" ref="F9:F10" si="0">SUM(D9*E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="9" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22">
         <f>SUM(E9:E11)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="43">
         <f>SUM(F9:F11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12">
+        <f>D15*E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12">
+        <f t="shared" ref="F17:F24" si="1">D17*E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="12">
+        <f t="shared" ref="F25:F33" si="2">D25*E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="12">
+        <f>D30*E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="12">
+        <f>D34*E34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="12">
+        <f>D35*E35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="13">
+        <f>D36*E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="33">
+        <f>SUM(E15:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="30">
+        <f>SUM(F15:F36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="79"/>
+      <c r="B39" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="75"/>
+      <c r="F39" s="34">
+        <f>F38*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="80"/>
+      <c r="B40" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14">
-        <f t="shared" ref="F15:F39" si="1">D15*E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="14">
-        <f t="shared" ref="F25:F34" si="2">D25*E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="48">
-        <f>D37*E37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="48">
-        <f>D38*E38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>10</v>
+      <c r="C40" s="78"/>
+      <c r="D40" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="74"/>
+      <c r="F40" s="34">
+        <f>SUM(F39+F13)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="54">
-        <f>SUM(E15:E40)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="51">
-        <f>SUM(F15:F39)</f>
-        <v>0</v>
-      </c>
+      <c r="A41" s="80"/>
+      <c r="B41" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="74"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="55">
-        <f>F41*1.1</f>
-        <v>0</v>
-      </c>
+      <c r="A42" s="80"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="74"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="55">
-        <f>SUM(F42+F13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="88"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="55"/>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="89"/>
-      <c r="B45" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="55"/>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="89"/>
-      <c r="B46" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="71" t="s">
+      <c r="A43" s="80"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="57">
-        <f>SUM(F43-F45)-F44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89"/>
-      <c r="B47" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="70"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="89"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-    </row>
-    <row r="49" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="89"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-    </row>
+      <c r="E43" s="74"/>
+      <c r="F43" s="35">
+        <f>SUM(F40-F42)-F41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44" s="1"/>
+      <c r="E44"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45" s="1"/>
+      <c r="E45"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" s="1"/>
+      <c r="E46"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="18">
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -2177,24 +1998,13 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A44:A49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="5.9027777777777776E-3" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="85" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="5" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0">
+    <oddHeader>&amp;F</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
